--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Pgf-Flt1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Pgf-Flt1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.3621465029637</v>
+        <v>14.02404766666667</v>
       </c>
       <c r="H2">
-        <v>11.3621465029637</v>
+        <v>42.072143</v>
       </c>
       <c r="I2">
-        <v>0.871403345348679</v>
+        <v>0.884078128941323</v>
       </c>
       <c r="J2">
-        <v>0.871403345348679</v>
+        <v>0.884078128941323</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>121.695020835378</v>
+        <v>126.660156</v>
       </c>
       <c r="N2">
-        <v>121.695020835378</v>
+        <v>379.980468</v>
       </c>
       <c r="O2">
-        <v>0.9737681791589184</v>
+        <v>0.9724734733029194</v>
       </c>
       <c r="P2">
-        <v>0.9737681791589184</v>
+        <v>0.9724734733029196</v>
       </c>
       <c r="Q2">
-        <v>1382.716655412785</v>
+        <v>1776.288065211436</v>
       </c>
       <c r="R2">
-        <v>1382.716655412785</v>
+        <v>15986.59258690292</v>
       </c>
       <c r="S2">
-        <v>0.8485448489131734</v>
+        <v>0.8597425287227146</v>
       </c>
       <c r="T2">
-        <v>0.8485448489131734</v>
+        <v>0.8597425287227147</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.3621465029637</v>
+        <v>14.02404766666667</v>
       </c>
       <c r="H3">
-        <v>11.3621465029637</v>
+        <v>42.072143</v>
       </c>
       <c r="I3">
-        <v>0.871403345348679</v>
+        <v>0.884078128941323</v>
       </c>
       <c r="J3">
-        <v>0.871403345348679</v>
+        <v>0.884078128941323</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.2341556247142</v>
+        <v>0.249583</v>
       </c>
       <c r="N3">
-        <v>0.2341556247142</v>
+        <v>0.7487489999999999</v>
       </c>
       <c r="O3">
-        <v>0.001873645238338952</v>
+        <v>0.001916252549754972</v>
       </c>
       <c r="P3">
-        <v>0.001873645238338952</v>
+        <v>0.001916252549754972</v>
       </c>
       <c r="Q3">
-        <v>2.660510512495728</v>
+        <v>3.500163888789666</v>
       </c>
       <c r="R3">
-        <v>2.660510512495728</v>
+        <v>31.50147499910699</v>
       </c>
       <c r="S3">
-        <v>0.001632700728685186</v>
+        <v>0.001694116968766415</v>
       </c>
       <c r="T3">
-        <v>0.001632700728685186</v>
+        <v>0.001694116968766415</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.3621465029637</v>
+        <v>14.02404766666667</v>
       </c>
       <c r="H4">
-        <v>11.3621465029637</v>
+        <v>42.072143</v>
       </c>
       <c r="I4">
-        <v>0.871403345348679</v>
+        <v>0.884078128941323</v>
       </c>
       <c r="J4">
-        <v>0.871403345348679</v>
+        <v>0.884078128941323</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.93564402243791</v>
+        <v>1.048924</v>
       </c>
       <c r="N4">
-        <v>0.93564402243791</v>
+        <v>3.146772</v>
       </c>
       <c r="O4">
-        <v>0.007486751469501565</v>
+        <v>0.008053446306435876</v>
       </c>
       <c r="P4">
-        <v>0.007486751469501565</v>
+        <v>0.008053446306435876</v>
       </c>
       <c r="Q4">
-        <v>10.63092445756179</v>
+        <v>14.71016017471067</v>
       </c>
       <c r="R4">
-        <v>10.63092445756179</v>
+        <v>132.391441572396</v>
       </c>
       <c r="S4">
-        <v>0.006523980276317802</v>
+        <v>0.007119875742123237</v>
       </c>
       <c r="T4">
-        <v>0.006523980276317802</v>
+        <v>0.007119875742123237</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.3621465029637</v>
+        <v>14.02404766666667</v>
       </c>
       <c r="H5">
-        <v>11.3621465029637</v>
+        <v>42.072143</v>
       </c>
       <c r="I5">
-        <v>0.871403345348679</v>
+        <v>0.884078128941323</v>
       </c>
       <c r="J5">
-        <v>0.871403345348679</v>
+        <v>0.884078128941323</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.43387988338326</v>
+        <v>1.522703666666667</v>
       </c>
       <c r="N5">
-        <v>1.43387988338326</v>
+        <v>4.568111</v>
       </c>
       <c r="O5">
-        <v>0.01147348998825111</v>
+        <v>0.01169103978945379</v>
       </c>
       <c r="P5">
-        <v>0.01147348998825111</v>
+        <v>0.01169103978945379</v>
       </c>
       <c r="Q5">
-        <v>16.29195330265311</v>
+        <v>21.35446880354144</v>
       </c>
       <c r="R5">
-        <v>16.29195330265311</v>
+        <v>192.190219231873</v>
       </c>
       <c r="S5">
-        <v>0.009998037558586591</v>
+        <v>0.01033579258243887</v>
       </c>
       <c r="T5">
-        <v>0.009998037558586591</v>
+        <v>0.01033579258243887</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.3621465029637</v>
+        <v>14.02404766666667</v>
       </c>
       <c r="H6">
-        <v>11.3621465029637</v>
+        <v>42.072143</v>
       </c>
       <c r="I6">
-        <v>0.871403345348679</v>
+        <v>0.884078128941323</v>
       </c>
       <c r="J6">
-        <v>0.871403345348679</v>
+        <v>0.884078128941323</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.674597632477513</v>
+        <v>0.7639916666666666</v>
       </c>
       <c r="N6">
-        <v>0.674597632477513</v>
+        <v>2.291975</v>
       </c>
       <c r="O6">
-        <v>0.005397934144989907</v>
+        <v>0.005865788051435999</v>
       </c>
       <c r="P6">
-        <v>0.005397934144989907</v>
+        <v>0.005865788051435999</v>
       </c>
       <c r="Q6">
-        <v>7.664877130761966</v>
+        <v>10.71425555026944</v>
       </c>
       <c r="R6">
-        <v>7.664877130761966</v>
+        <v>96.42829995242499</v>
       </c>
       <c r="S6">
-        <v>0.004703777871916066</v>
+        <v>0.005185814925279907</v>
       </c>
       <c r="T6">
-        <v>0.004703777871916066</v>
+        <v>0.005185814925279907</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.887153128641489</v>
+        <v>0.9221116666666666</v>
       </c>
       <c r="H7">
-        <v>0.887153128641489</v>
+        <v>2.766335</v>
       </c>
       <c r="I7">
-        <v>0.06803892239314935</v>
+        <v>0.05813006175665676</v>
       </c>
       <c r="J7">
-        <v>0.06803892239314935</v>
+        <v>0.05813006175665676</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>121.695020835378</v>
+        <v>126.660156</v>
       </c>
       <c r="N7">
-        <v>121.695020835378</v>
+        <v>379.980468</v>
       </c>
       <c r="O7">
-        <v>0.9737681791589184</v>
+        <v>0.9724734733029194</v>
       </c>
       <c r="P7">
-        <v>0.9737681791589184</v>
+        <v>0.9724734733029196</v>
       </c>
       <c r="Q7">
-        <v>107.9621184741968</v>
+        <v>116.79480754942</v>
       </c>
       <c r="R7">
-        <v>107.9621184741968</v>
+        <v>1051.15326794478</v>
       </c>
       <c r="S7">
-        <v>0.066254137570712</v>
+        <v>0.05652994305980921</v>
       </c>
       <c r="T7">
-        <v>0.066254137570712</v>
+        <v>0.05652994305980921</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.887153128641489</v>
+        <v>0.9221116666666666</v>
       </c>
       <c r="H8">
-        <v>0.887153128641489</v>
+        <v>2.766335</v>
       </c>
       <c r="I8">
-        <v>0.06803892239314935</v>
+        <v>0.05813006175665676</v>
       </c>
       <c r="J8">
-        <v>0.06803892239314935</v>
+        <v>0.05813006175665676</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2341556247142</v>
+        <v>0.249583</v>
       </c>
       <c r="N8">
-        <v>0.2341556247142</v>
+        <v>0.7487489999999999</v>
       </c>
       <c r="O8">
-        <v>0.001873645238338952</v>
+        <v>0.001916252549754972</v>
       </c>
       <c r="P8">
-        <v>0.001873645238338952</v>
+        <v>0.001916252549754972</v>
       </c>
       <c r="Q8">
-        <v>0.2077318950542049</v>
+        <v>0.2301433961016666</v>
       </c>
       <c r="R8">
-        <v>0.2077318950542049</v>
+        <v>2.071290564915</v>
       </c>
       <c r="S8">
-        <v>0.0001274808029636378</v>
+        <v>0.0001113918790586075</v>
       </c>
       <c r="T8">
-        <v>0.0001274808029636378</v>
+        <v>0.0001113918790586075</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.887153128641489</v>
+        <v>0.9221116666666666</v>
       </c>
       <c r="H9">
-        <v>0.887153128641489</v>
+        <v>2.766335</v>
       </c>
       <c r="I9">
-        <v>0.06803892239314935</v>
+        <v>0.05813006175665676</v>
       </c>
       <c r="J9">
-        <v>0.06803892239314935</v>
+        <v>0.05813006175665676</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.93564402243791</v>
+        <v>1.048924</v>
       </c>
       <c r="N9">
-        <v>0.93564402243791</v>
+        <v>3.146772</v>
       </c>
       <c r="O9">
-        <v>0.007486751469501565</v>
+        <v>0.008053446306435876</v>
       </c>
       <c r="P9">
-        <v>0.007486751469501565</v>
+        <v>0.008053446306435876</v>
       </c>
       <c r="Q9">
-        <v>0.8300595218004994</v>
+        <v>0.9672250578466667</v>
       </c>
       <c r="R9">
-        <v>0.8300595218004994</v>
+        <v>8.70502552062</v>
       </c>
       <c r="S9">
-        <v>0.0005093905022102138</v>
+        <v>0.0004681473311470367</v>
       </c>
       <c r="T9">
-        <v>0.0005093905022102138</v>
+        <v>0.0004681473311470367</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.887153128641489</v>
+        <v>0.9221116666666666</v>
       </c>
       <c r="H10">
-        <v>0.887153128641489</v>
+        <v>2.766335</v>
       </c>
       <c r="I10">
-        <v>0.06803892239314935</v>
+        <v>0.05813006175665676</v>
       </c>
       <c r="J10">
-        <v>0.06803892239314935</v>
+        <v>0.05813006175665676</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.43387988338326</v>
+        <v>1.522703666666667</v>
       </c>
       <c r="N10">
-        <v>1.43387988338326</v>
+        <v>4.568111</v>
       </c>
       <c r="O10">
-        <v>0.01147348998825111</v>
+        <v>0.01169103978945379</v>
       </c>
       <c r="P10">
-        <v>0.01147348998825111</v>
+        <v>0.01169103978945379</v>
       </c>
       <c r="Q10">
-        <v>1.272071024639553</v>
+        <v>1.404102815909444</v>
       </c>
       <c r="R10">
-        <v>1.272071024639553</v>
+        <v>12.636925343185</v>
       </c>
       <c r="S10">
-        <v>0.0007806438948891932</v>
+        <v>0.0006796008649604803</v>
       </c>
       <c r="T10">
-        <v>0.0007806438948891932</v>
+        <v>0.0006796008649604804</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.887153128641489</v>
+        <v>0.9221116666666666</v>
       </c>
       <c r="H11">
-        <v>0.887153128641489</v>
+        <v>2.766335</v>
       </c>
       <c r="I11">
-        <v>0.06803892239314935</v>
+        <v>0.05813006175665676</v>
       </c>
       <c r="J11">
-        <v>0.06803892239314935</v>
+        <v>0.05813006175665676</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.674597632477513</v>
+        <v>0.7639916666666666</v>
       </c>
       <c r="N11">
-        <v>0.674597632477513</v>
+        <v>2.291975</v>
       </c>
       <c r="O11">
-        <v>0.005397934144989907</v>
+        <v>0.005865788051435999</v>
       </c>
       <c r="P11">
-        <v>0.005397934144989907</v>
+        <v>0.005865788051435999</v>
       </c>
       <c r="Q11">
-        <v>0.598471400226567</v>
+        <v>0.7044856290694443</v>
       </c>
       <c r="R11">
-        <v>0.598471400226567</v>
+        <v>6.340370661624999</v>
       </c>
       <c r="S11">
-        <v>0.0003672696223742993</v>
+        <v>0.000340978621681434</v>
       </c>
       <c r="T11">
-        <v>0.0003672696223742993</v>
+        <v>0.000340978621681434</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.789606592030328</v>
+        <v>0.07989233333333333</v>
       </c>
       <c r="H12">
-        <v>0.789606592030328</v>
+        <v>0.239677</v>
       </c>
       <c r="I12">
-        <v>0.06055773225817168</v>
+        <v>0.005036425021427348</v>
       </c>
       <c r="J12">
-        <v>0.06055773225817168</v>
+        <v>0.005036425021427348</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>121.695020835378</v>
+        <v>126.660156</v>
       </c>
       <c r="N12">
-        <v>121.695020835378</v>
+        <v>379.980468</v>
       </c>
       <c r="O12">
-        <v>0.9737681791589184</v>
+        <v>0.9724734733029194</v>
       </c>
       <c r="P12">
-        <v>0.9737681791589184</v>
+        <v>0.9724734733029196</v>
       </c>
       <c r="Q12">
-        <v>96.09119066888259</v>
+        <v>10.119175403204</v>
       </c>
       <c r="R12">
-        <v>96.09119066888259</v>
+        <v>91.072578628836</v>
       </c>
       <c r="S12">
-        <v>0.05896919267503314</v>
+        <v>0.004897789733617184</v>
       </c>
       <c r="T12">
-        <v>0.05896919267503314</v>
+        <v>0.004897789733617185</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.789606592030328</v>
+        <v>0.07989233333333333</v>
       </c>
       <c r="H13">
-        <v>0.789606592030328</v>
+        <v>0.239677</v>
       </c>
       <c r="I13">
-        <v>0.06055773225817168</v>
+        <v>0.005036425021427348</v>
       </c>
       <c r="J13">
-        <v>0.06055773225817168</v>
+        <v>0.005036425021427348</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2341556247142</v>
+        <v>0.249583</v>
       </c>
       <c r="N13">
-        <v>0.2341556247142</v>
+        <v>0.7487489999999999</v>
       </c>
       <c r="O13">
-        <v>0.001873645238338952</v>
+        <v>0.001916252549754972</v>
       </c>
       <c r="P13">
-        <v>0.001873645238338952</v>
+        <v>0.001916252549754972</v>
       </c>
       <c r="Q13">
-        <v>0.1848908248353119</v>
+        <v>0.01993976823033333</v>
       </c>
       <c r="R13">
-        <v>0.1848908248353119</v>
+        <v>0.179457914073</v>
       </c>
       <c r="S13">
-        <v>0.0001134637066901285</v>
+        <v>9.651062288959895E-06</v>
       </c>
       <c r="T13">
-        <v>0.0001134637066901285</v>
+        <v>9.651062288959897E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.789606592030328</v>
+        <v>0.07989233333333333</v>
       </c>
       <c r="H14">
-        <v>0.789606592030328</v>
+        <v>0.239677</v>
       </c>
       <c r="I14">
-        <v>0.06055773225817168</v>
+        <v>0.005036425021427348</v>
       </c>
       <c r="J14">
-        <v>0.06055773225817168</v>
+        <v>0.005036425021427348</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.93564402243791</v>
+        <v>1.048924</v>
       </c>
       <c r="N14">
-        <v>0.93564402243791</v>
+        <v>3.146772</v>
       </c>
       <c r="O14">
-        <v>0.007486751469501565</v>
+        <v>0.008053446306435876</v>
       </c>
       <c r="P14">
-        <v>0.007486751469501565</v>
+        <v>0.008053446306435876</v>
       </c>
       <c r="Q14">
-        <v>0.7387906879107459</v>
+        <v>0.08380098584933335</v>
       </c>
       <c r="R14">
-        <v>0.7387906879107459</v>
+        <v>0.7542088726440001</v>
       </c>
       <c r="S14">
-        <v>0.0004533806909735492</v>
+        <v>4.05605784864553E-05</v>
       </c>
       <c r="T14">
-        <v>0.0004533806909735492</v>
+        <v>4.05605784864553E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.789606592030328</v>
+        <v>0.07989233333333333</v>
       </c>
       <c r="H15">
-        <v>0.789606592030328</v>
+        <v>0.239677</v>
       </c>
       <c r="I15">
-        <v>0.06055773225817168</v>
+        <v>0.005036425021427348</v>
       </c>
       <c r="J15">
-        <v>0.06055773225817168</v>
+        <v>0.005036425021427348</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.43387988338326</v>
+        <v>1.522703666666667</v>
       </c>
       <c r="N15">
-        <v>1.43387988338326</v>
+        <v>4.568111</v>
       </c>
       <c r="O15">
-        <v>0.01147348998825111</v>
+        <v>0.01169103978945379</v>
       </c>
       <c r="P15">
-        <v>0.01147348998825111</v>
+        <v>0.01169103978945379</v>
       </c>
       <c r="Q15">
-        <v>1.1322010080991</v>
+        <v>0.1216523489052222</v>
       </c>
       <c r="R15">
-        <v>1.1322010080991</v>
+        <v>1.094871140147</v>
       </c>
       <c r="S15">
-        <v>0.000694808534775324</v>
+        <v>5.888104532210779E-05</v>
       </c>
       <c r="T15">
-        <v>0.000694808534775324</v>
+        <v>5.88810453221078E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.07989233333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.239677</v>
+      </c>
+      <c r="I16">
+        <v>0.005036425021427348</v>
+      </c>
+      <c r="J16">
+        <v>0.005036425021427348</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.7639916666666666</v>
+      </c>
+      <c r="N16">
+        <v>2.291975</v>
+      </c>
+      <c r="O16">
+        <v>0.005865788051435999</v>
+      </c>
+      <c r="P16">
+        <v>0.005865788051435999</v>
+      </c>
+      <c r="Q16">
+        <v>0.06103707689722222</v>
+      </c>
+      <c r="R16">
+        <v>0.5493336920749999</v>
+      </c>
+      <c r="S16">
+        <v>2.954260171264184E-05</v>
+      </c>
+      <c r="T16">
+        <v>2.954260171264184E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.8368536666666667</v>
+      </c>
+      <c r="H17">
+        <v>2.510561</v>
+      </c>
+      <c r="I17">
+        <v>0.05275538428059291</v>
+      </c>
+      <c r="J17">
+        <v>0.05275538428059291</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>126.660156</v>
+      </c>
+      <c r="N17">
+        <v>379.980468</v>
+      </c>
+      <c r="O17">
+        <v>0.9724734733029194</v>
+      </c>
+      <c r="P17">
+        <v>0.9724734733029196</v>
+      </c>
+      <c r="Q17">
+        <v>105.996015969172</v>
+      </c>
+      <c r="R17">
+        <v>953.964143722548</v>
+      </c>
+      <c r="S17">
+        <v>0.05130321178677843</v>
+      </c>
+      <c r="T17">
+        <v>0.05130321178677843</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.8368536666666667</v>
+      </c>
+      <c r="H18">
+        <v>2.510561</v>
+      </c>
+      <c r="I18">
+        <v>0.05275538428059291</v>
+      </c>
+      <c r="J18">
+        <v>0.05275538428059291</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.249583</v>
+      </c>
+      <c r="N18">
+        <v>0.7487489999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.001916252549754972</v>
+      </c>
+      <c r="P18">
+        <v>0.001916252549754972</v>
+      </c>
+      <c r="Q18">
+        <v>0.2088644486876667</v>
+      </c>
+      <c r="R18">
+        <v>1.879780038189</v>
+      </c>
+      <c r="S18">
+        <v>0.0001010926396409895</v>
+      </c>
+      <c r="T18">
+        <v>0.0001010926396409895</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.8368536666666667</v>
+      </c>
+      <c r="H19">
+        <v>2.510561</v>
+      </c>
+      <c r="I19">
+        <v>0.05275538428059291</v>
+      </c>
+      <c r="J19">
+        <v>0.05275538428059291</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.048924</v>
+      </c>
+      <c r="N19">
+        <v>3.146772</v>
+      </c>
+      <c r="O19">
+        <v>0.008053446306435876</v>
+      </c>
+      <c r="P19">
+        <v>0.008053446306435876</v>
+      </c>
+      <c r="Q19">
+        <v>0.8777958954546669</v>
+      </c>
+      <c r="R19">
+        <v>7.900163059092001</v>
+      </c>
+      <c r="S19">
+        <v>0.0004248626546791463</v>
+      </c>
+      <c r="T19">
+        <v>0.0004248626546791462</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.789606592030328</v>
-      </c>
-      <c r="H16">
-        <v>0.789606592030328</v>
-      </c>
-      <c r="I16">
-        <v>0.06055773225817168</v>
-      </c>
-      <c r="J16">
-        <v>0.06055773225817168</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.674597632477513</v>
-      </c>
-      <c r="N16">
-        <v>0.674597632477513</v>
-      </c>
-      <c r="O16">
-        <v>0.005397934144989907</v>
-      </c>
-      <c r="P16">
-        <v>0.005397934144989907</v>
-      </c>
-      <c r="Q16">
-        <v>0.5326667375722968</v>
-      </c>
-      <c r="R16">
-        <v>0.5326667375722968</v>
-      </c>
-      <c r="S16">
-        <v>0.0003268866506995417</v>
-      </c>
-      <c r="T16">
-        <v>0.0003268866506995417</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.8368536666666667</v>
+      </c>
+      <c r="H20">
+        <v>2.510561</v>
+      </c>
+      <c r="I20">
+        <v>0.05275538428059291</v>
+      </c>
+      <c r="J20">
+        <v>0.05275538428059291</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.522703666666667</v>
+      </c>
+      <c r="N20">
+        <v>4.568111</v>
+      </c>
+      <c r="O20">
+        <v>0.01169103978945379</v>
+      </c>
+      <c r="P20">
+        <v>0.01169103978945379</v>
+      </c>
+      <c r="Q20">
+        <v>1.274280146696778</v>
+      </c>
+      <c r="R20">
+        <v>11.468521320271</v>
+      </c>
+      <c r="S20">
+        <v>0.0006167652967323367</v>
+      </c>
+      <c r="T20">
+        <v>0.0006167652967323367</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.8368536666666667</v>
+      </c>
+      <c r="H21">
+        <v>2.510561</v>
+      </c>
+      <c r="I21">
+        <v>0.05275538428059291</v>
+      </c>
+      <c r="J21">
+        <v>0.05275538428059291</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.7639916666666666</v>
+      </c>
+      <c r="N21">
+        <v>2.291975</v>
+      </c>
+      <c r="O21">
+        <v>0.005865788051435999</v>
+      </c>
+      <c r="P21">
+        <v>0.005865788051435999</v>
+      </c>
+      <c r="Q21">
+        <v>0.6393492275527778</v>
+      </c>
+      <c r="R21">
+        <v>5.754143047975</v>
+      </c>
+      <c r="S21">
+        <v>0.0003094519027620164</v>
+      </c>
+      <c r="T21">
+        <v>0.0003094519027620164</v>
       </c>
     </row>
   </sheetData>
